--- a/biology/Histoire de la zoologie et de la botanique/Christoph_Jakob_Trew/Christoph_Jakob_Trew.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Christoph_Jakob_Trew/Christoph_Jakob_Trew.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christoph Jakob Trew est un médecin et un botaniste  allemand, né le 26 avril 1695 à Lauf an der Pegnitz et mort le 18 juillet 1769 à Nuremberg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce riche médecin de Nuremberg rassemble des planches illustrées par divers artistes dans plusieurs recueils.
 Il fait paraître Plantae Selectae en 1750, Plantae rariores de 1763 à 1784 et Hortus nitidissimis omnem per annum superbiens floribus de 1750 à 1792 sous forme de 178 gravures colorées à la main.
@@ -547,7 +561,9 @@
           <t>Œuvres et travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tabvlae Osteologicae Sev Omnivm Corporis Hvmani Perfecti Ossivm Imagines Ad Dvctvm Natvrae Tam Sigillatim Quam In Ordinaria Connexione Secvndvm Habitvm Svvm Externvm Magnitvdine Natvrali. 40 planches. Nuremberg 1767</t>
         </is>
@@ -577,7 +593,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN GND Japon CiNii Pays-Bas Pologne Israël NUKAT Catalogne Suède Vatican Norvège Tchéquie WorldCat 
 H. Walter Lack (2001). Un Jardin d’Eden. Chefs-d’œuvre de l’illustration botanique. Taschen (Cologne) : 576 p.
